--- a/MaplinkTemp.xlsx
+++ b/MaplinkTemp.xlsx
@@ -14,36 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/My+Art+Gallary/data=!4m7!3m6!1s0x390ce5e7cce45dd5:0xad1c1016086fd11b!8m2!3d28.5821195!4d77.3266991!16s%2Fg%2F11rst3b1yv!19sChIJ1V3kzOflDDkRG9FvCBYQHK0?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Geonla+(Brahamkhal)/data=!4m7!3m6!1s0x3908ea9cbae484bf:0x75d05b7637708a8!8m2!3d30.6992748!4d78.2984155!16s%2Fg%2F11b7grqfty!19sChIJv4TkupzqCDkRqAh3Y7cFXQc?authuser=0&amp;hl=en&amp;rclk=1</x:t>
   </x:si>
   <x:si>
     <x:t>Aboriginal art gallery</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.co.in/maps/place/Japingka+Aboriginal+Art/data=!4m7!3m6!1s0x2a32a170196dc9c7:0x1d72bcd4480b9178!8m2!3d-32.055214!4d115.7444264!16s%2Fg%2F1v6gbjsr!19sChIJx8ltGXChMioReJELSNS8ch0?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Rebecca+Hossack+Art+Gallery/data=!4m7!3m6!1s0x48761b2c134a2431:0x5a72d39e5c1bed17!8m2!3d51.5220363!4d-0.139547!16s%2Fg%2F1td5wn6m!19sChIJMSRKEywbdkgRF-0bXJ7Tclo?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abundant Life church</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accounting firm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accounting school</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accounting software company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Acoustical consultant</x:t>
+    <x:t>https://www.google.co.in/maps/place/Kotdhar/data=!4m7!3m6!1s0x3908c14b22ca143f:0x375c00b346cac9cc!8m2!3d30.6749989!4d78.2300288!16s%2Fg%2F11s462p7_y!19sChIJPxTKIkvBCDkRzMnKRrMAXDc?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Banchaura/data=!4m7!3m6!1s0x3908c145b0381f9f:0x3f3c5dc0bbb9a3d5!8m2!3d30.6481765!4d78.215704!16s%2Fg%2F1hm3qgb9_!19sChIJnx84sEXBCDkR1aO5u8BdPD8?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aboriginal and Torres Strait Islander organization</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Post+Office+Dunda/data=!4m7!3m6!1s0x3908eb1a2dfbdad1:0x599bb711a285e875!8m2!3d30.7069489!4d78.3475752!16s%2Fg%2F11cs383h0n!19sChIJ0dr7LRrrCDkRdeiFohG3m1k?authuser=0&amp;hl=en&amp;rclk=1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -394,7 +382,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B28"/>
+  <x:dimension ref="A1:B3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -418,7 +406,7 @@
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>1</x:v>
@@ -426,150 +414,26 @@
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
+      <x:c r="A5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
+      <x:c r="A6" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="B7" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="B8" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="B9" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="B10" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="B11" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="B12" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="B13" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="B14" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="B15" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
-      <x:c r="B16" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
-      <x:c r="B17" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
-      <x:c r="B18" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
-      <x:c r="B19" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="B20" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2">
-      <x:c r="B21" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2">
-      <x:c r="B22" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2">
-      <x:c r="B23" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
-      <x:c r="B24" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:2">
-      <x:c r="B25" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:2">
-      <x:c r="B26" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:2">
-      <x:c r="B27" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:2">
-      <x:c r="B28" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:2">
-      <x:c r="B29" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:2">
-      <x:c r="B30" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:2">
-      <x:c r="B31" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:2">
-      <x:c r="B32" s="0" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/MaplinkTemp.xlsx
+++ b/MaplinkTemp.xlsx
@@ -14,24 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Geonla+(Brahamkhal)/data=!4m7!3m6!1s0x3908ea9cbae484bf:0x75d05b7637708a8!8m2!3d30.6992748!4d78.2984155!16s%2Fg%2F11b7grqfty!19sChIJv4TkupzqCDkRqAh3Y7cFXQc?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Acrylic+Sheets+India/data=!4m7!3m6!1s0x390cfd421a3e71b9:0x4c8faea60f77f2cf!8m2!3d28.6447187!4d77.2106531!16s%2Fg%2F11f12qslxw!19sChIJuXE-GkL9DDkRz_J3D6auj0w?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acrylic store</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Acrylic+Sheet+Dealers/data=!4m7!3m6!1s0x390d01408299a4a7:0xbf2a22534736a4d9!8m2!3d28.7542864!4d77.1406463!16s%2Fg%2F11rr647dbr!19sChIJp6SZgkABDTkR2aQ2R1MiKr8?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Anu+Malhotra+Art+(AM+Art)+-+Buy+Art+%26+Paintings+Online/data=!4m7!3m6!1s0x390cfdbc29e51f0f:0x3b07a35f04aaba5b!8m2!3d28.6308612!4d77.2198321!16s%2Fg%2F11ry2s3y2b!19sChIJDx_lKbz9DDkRW7qqBF-jBzs?authuser=0&amp;hl=en&amp;rclk=1</x:t>
   </x:si>
   <x:si>
     <x:t>Aboriginal art gallery</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.google.co.in/maps/place/Kotdhar/data=!4m7!3m6!1s0x3908c14b22ca143f:0x375c00b346cac9cc!8m2!3d30.6749989!4d78.2300288!16s%2Fg%2F11s462p7_y!19sChIJPxTKIkvBCDkRzMnKRrMAXDc?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Banchaura/data=!4m7!3m6!1s0x3908c145b0381f9f:0x3f3c5dc0bbb9a3d5!8m2!3d30.6481765!4d78.215704!16s%2Fg%2F1hm3qgb9_!19sChIJnx84sEXBCDkR1aO5u8BdPD8?authuser=0&amp;hl=en&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aboriginal and Torres Strait Islander organization</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.co.in/maps/place/Post+Office+Dunda/data=!4m7!3m6!1s0x3908eb1a2dfbdad1:0x599bb711a285e875!8m2!3d30.7069489!4d78.3475752!16s%2Fg%2F11cs383h0n!19sChIJ0dr7LRrrCDkRdeiFohG3m1k?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+    <x:t>https://www.google.co.in/maps/place/Fine+Line+Art+Academy/data=!4m7!3m6!1s0x390d0185b32d8bc7:0x3452c9ae6542d776!8m2!3d28.7159618!4d77.1546709!16s%2Fg%2F11dynb1ddy!19sChIJx4sts4UBDTkRdtdCZa7JUjQ?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Aboriginal+Art+Gallery/data=!4m7!3m6!1s0x3bcbbd67eff00465:0x63753e5372f073a4!8m2!3d17.3219495!4d78.4517152!16s%2Fg%2F1hf147k_1!19sChIJZQTw72e9yzsRpHPwclM-dWM?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Museum+of+Folk+and+Tribal+Art/data=!4m7!3m6!1s0x390d177e0f6fc55d:0x61910dad6f5bfc13!8m2!3d28.4708101!4d77.0096772!16s%2Fg%2F1vqtf5f_!19sChIJXcVvD34XDTkRE_xbb60NkWE?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Artlandish+Aboriginal+Art+Gallery/data=!4m7!3m6!1s0x2c99f37c2eb4aae1:0x78aa15721a27312c!8m2!3d-15.774109!4d128.739826!16s%2Fg%2F1tdjlqnn!19sChIJ4aq0LnzzmSwRLDEnGnIVqng?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Aboriginal+Art+Galleries/data=!4m7!3m6!1s0x6b12b9e532739a91:0x7555a7412dcd8284!8m2!3d-33.8721139!4d151.206738!16s%2Fg%2F1tgyww7f!19sChIJkZpzMuW5EmsRhILNLUGnVXU?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Mandel+Aboriginal+Art+Gallery/data=!4m7!3m6!1s0x6ad643f4d84d8d93:0x5c7b6a8b5bc8b4e2!8m2!3d-37.7810782!4d145.027931!16s%2Fg%2F11bycl2fc_!19sChIJk41N2PRD1moR4rTIW4tqe1w?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Mbantua+Aboriginal+Art+Gallery/data=!4m7!3m6!1s0x2b32195b53877705:0x2000d0dfe0ef1e1b!8m2!3d-23.6971984!4d133.8695236!16s%2Fg%2F1tlr20t5!19sChIJBXeHU1sZMisRGx7v4N_QACA?authuser=0&amp;hl=en&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.co.in/maps/place/Laverton+Aboriginal+Art+Gallery/data=!4m7!3m6!1s0x2bae888a47963ff1:0x7478d05f032d4448!8m2!3d-28.6251344!4d122.4033221!16s%2Fg%2F1tyh4sj6!19sChIJ8T-WR4qIrisRSEQtA1_QeHQ?authuser=0&amp;hl=en&amp;rclk=1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -409,12 +430,12 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>4</x:v>
@@ -422,7 +443,7 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>4</x:v>
@@ -430,9 +451,479 @@
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="B12" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="B13" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="B14" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="B15" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="B16" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="B17" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="B18" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="B19" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="B20" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="B21" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="B22" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="B23" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="B24" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="B25" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="B26" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="B27" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="B28" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="B29" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="B30" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="B31" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="B32" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="B33" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="B34" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="B35" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="B36" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="B37" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="B38" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="B39" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="B40" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="B41" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="B42" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="B43" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="B44" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2">
+      <x:c r="B45" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:2">
+      <x:c r="B46" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:2">
+      <x:c r="B47" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:2">
+      <x:c r="B48" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:2">
+      <x:c r="B49" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:2">
+      <x:c r="B50" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:2">
+      <x:c r="B51" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:2">
+      <x:c r="B52" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:2">
+      <x:c r="B53" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:2">
+      <x:c r="B54" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:2">
+      <x:c r="B55" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:2">
+      <x:c r="B56" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:2">
+      <x:c r="B57" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:2">
+      <x:c r="B58" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:2">
+      <x:c r="B59" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:2">
+      <x:c r="B60" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:2">
+      <x:c r="B61" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:2">
+      <x:c r="B62" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:2">
+      <x:c r="B63" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:2">
+      <x:c r="B64" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:2">
+      <x:c r="B65" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:2">
+      <x:c r="B66" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:2">
+      <x:c r="B67" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:2">
+      <x:c r="B68" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:2">
+      <x:c r="B69" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:2">
+      <x:c r="B70" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:2">
+      <x:c r="B71" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:2">
+      <x:c r="B72" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:2">
+      <x:c r="B73" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:2">
+      <x:c r="B74" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:2">
+      <x:c r="B75" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:2">
+      <x:c r="B76" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:2">
+      <x:c r="B77" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:2">
+      <x:c r="B78" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:2">
+      <x:c r="B79" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:2">
+      <x:c r="B80" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:2">
+      <x:c r="B81" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:2">
+      <x:c r="B82" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:2">
+      <x:c r="B83" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:2">
+      <x:c r="B84" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:2">
+      <x:c r="B85" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:2">
+      <x:c r="B86" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:2">
+      <x:c r="B87" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:2">
+      <x:c r="B88" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:2">
+      <x:c r="B89" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:2">
+      <x:c r="B90" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:2">
+      <x:c r="B91" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:2">
+      <x:c r="B92" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:2">
+      <x:c r="B93" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:2">
+      <x:c r="B94" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:2">
+      <x:c r="B95" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:2">
+      <x:c r="B96" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:2">
+      <x:c r="B97" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
